--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123DE5FC-E091-47ED-AE36-260699B3C411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A670E76A-8576-49C0-A6D0-210118D5911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A670E76A-8576-49C0-A6D0-210118D5911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B717180-A622-43EF-B9C8-79B10D489C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,94 +55,103 @@
     <t>Effects</t>
   </si>
   <si>
-    <t>唯一的标识（不能重复）</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>卡牌添加的脚本</t>
-  </si>
-  <si>
-    <t>卡牌类型的Id</t>
+    <t>AttackCardItem</t>
+  </si>
+  <si>
+    <t>Icon/BlueCard</t>
+  </si>
+  <si>
+    <t>Icon/sword_03e</t>
+  </si>
+  <si>
+    <t>Effects/GreenBloodExplosion</t>
+  </si>
+  <si>
+    <t>DefendCard</t>
+  </si>
+  <si>
+    <t>Icon/GreenCard</t>
+  </si>
+  <si>
+    <t>Icon/armor_01a</t>
+  </si>
+  <si>
+    <t>Effects/SpinZoneBlue</t>
+  </si>
+  <si>
+    <t>AddCard</t>
+  </si>
+  <si>
+    <t>Icon/RedCard</t>
+  </si>
+  <si>
+    <t>Icon/wood_01a</t>
+  </si>
+  <si>
+    <t>Effects/SmokeExplosionDark</t>
+  </si>
+  <si>
+    <t>Deal {0} points of damage to a single enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase {0} shield points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw {0} cards from the deck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖示資源的路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗的費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌的背景圖資源路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>图标资源的路径</t>
-  </si>
-  <si>
-    <t>消耗的费用</t>
-  </si>
-  <si>
-    <t>属性值</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>AttackCardItem</t>
-  </si>
-  <si>
-    <t>Icon/BlueCard</t>
-  </si>
-  <si>
-    <t>Icon/sword_03e</t>
-  </si>
-  <si>
-    <t>Effects/GreenBloodExplosion</t>
-  </si>
-  <si>
-    <t>DefendCard</t>
-  </si>
-  <si>
-    <t>Icon/GreenCard</t>
-  </si>
-  <si>
-    <t>Icon/armor_01a</t>
-  </si>
-  <si>
-    <t>Effects/SpinZoneBlue</t>
-  </si>
-  <si>
-    <t>AddCard</t>
-  </si>
-  <si>
-    <t>Icon/RedCard</t>
-  </si>
-  <si>
-    <t>Icon/wood_01a</t>
-  </si>
-  <si>
-    <t>Effects/SmokeExplosionDark</t>
-  </si>
-  <si>
-    <t>卡牌的背景图资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal {0} points of damage to a single enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase {0} shield points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draw {0} cards from the deck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌類型的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌新增的腳本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一的識別（不能重複）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +524,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -560,35 +572,35 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -596,22 +608,22 @@
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>10001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -620,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -628,22 +640,22 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>10002</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -652,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -660,22 +672,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>10003</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -684,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B717180-A622-43EF-B9C8-79B10D489C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBA35B-0044-4D59-BA66-0098ED0BAD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBA35B-0044-4D59-BA66-0098ED0BAD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0019E447-546F-4604-A2A6-3A0B54557E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0019E447-546F-4604-A2A6-3A0B54557E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03200028-403F-4C1E-AFD6-2D4E8E370F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -55,103 +55,134 @@
     <t>Effects</t>
   </si>
   <si>
+    <t>DefendCard</t>
+  </si>
+  <si>
+    <t>AddCard</t>
+  </si>
+  <si>
+    <t>Icon/RedCard</t>
+  </si>
+  <si>
+    <t>Icon/wood_01a</t>
+  </si>
+  <si>
+    <t>Effects/SmokeExplosionDark</t>
+  </si>
+  <si>
+    <t>Deal {0} points of damage to a single enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase {0} shield points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw {0} cards from the deck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖示資源的路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗的費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌的背景圖資源路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌類型的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌新增的腳本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一的識別（不能重複）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AttackCardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldBash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal {0} points of damage to a single enemy and Increase {0} shield points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon/BlueCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon/sword_03e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effects/GreenBloodExplosion</t>
-  </si>
-  <si>
-    <t>DefendCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal {0} points of damage to a single enemy Until the magic power runs out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongdefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase {0} shield points Until the magic power runs out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon/GreenCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon/armor_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effects/SpinZoneBlue</t>
-  </si>
-  <si>
-    <t>AddCard</t>
-  </si>
-  <si>
-    <t>Icon/RedCard</t>
-  </si>
-  <si>
-    <t>Icon/wood_01a</t>
-  </si>
-  <si>
-    <t>Effects/SmokeExplosionDark</t>
-  </si>
-  <si>
-    <t>Deal {0} points of damage to a single enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase {0} shield points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draw {0} cards from the deck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spurious</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖示資源的路徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗的費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌的背景圖資源路徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌類型的Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌新增的腳本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一的識別（不能重複）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -573,34 +604,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,31 +639,31 @@
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>10001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -640,31 +671,31 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>10002</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -672,22 +703,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>10003</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -696,7 +727,103 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03200028-403F-4C1E-AFD6-2D4E8E370F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542184A-DC09-41DA-AD4A-F7F533B5723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spurious</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖示資源的路徑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>Effects/SpinZoneBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,22 +565,22 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="5" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,39 +612,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -642,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>10001</v>
@@ -651,10 +661,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -663,10 +673,10 @@
         <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -683,10 +693,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -695,15 +705,15 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -730,27 +740,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>10001</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -759,30 +769,30 @@
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>10001</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -791,30 +801,30 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>10002</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -823,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,7 +863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,7 +877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\FYP\ITE4116M\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ame\Documents\GitHub\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542184A-DC09-41DA-AD4A-F7F533B5723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338CC286-7281-4E0C-A1B1-C2DC9A04E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -182,7 +182,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>supplies</t>
+    <t>Supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KickBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDefense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,22 +577,22 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -644,7 +656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -676,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -708,7 +720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -740,12 +752,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -772,12 +784,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -804,12 +816,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -849,7 +861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -863,7 +875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,7 +889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ITE4116M/Assets/_Excel/card.xlsx
+++ b/ITE4116M/Assets/_Excel/card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ame\Documents\GitHub\FYP\ITE4116M\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338CC286-7281-4E0C-A1B1-C2DC9A04E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8656EE-3D1C-4396-AEE6-DF84C1D89BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,19 +580,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="5" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -656,7 +656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -711,16 +711,16 @@
         <v>41</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -775,16 +775,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -816,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,7 +875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
